--- a/data/trans_bre/P16B09-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B09-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B09-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B09-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -619,17 +619,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -699,17 +699,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -779,17 +779,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,77; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,77; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -859,17 +859,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,13; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,13; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -939,12 +939,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1099,17 +1099,17 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,67%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,47; 16,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,92; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,08; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,61; 20,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,92; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,08; 0,0</t>
         </is>
       </c>
     </row>
@@ -1244,32 +1244,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,54%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,32%</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 6,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,13; -0,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,54; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 6,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,13; -0,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,54; 0,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B09-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B09-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,93%</t>
+          <t>-4,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 0,0</t>
+          <t>-18,73; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 0,0</t>
+          <t>-18,73; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/P16B09-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B09-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,77; 0,0</t>
+          <t>-21,41; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,77; 0,0</t>
+          <t>-21,41; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 0,0</t>
+          <t>-19,49; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 0,0</t>
+          <t>-19,49; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 16,42</t>
+          <t>-4,37; 17,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 0,0</t>
+          <t>-10,05; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,08; 0,0</t>
+          <t>-26,47; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 20,38</t>
+          <t>-4,51; 21,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 0,0</t>
+          <t>-10,05; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,08; 0,0</t>
+          <t>-26,47; 0,0</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 6,07</t>
+          <t>-1,21; 5,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,13; -0,49</t>
+          <t>-4,42; -0,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 0,0</t>
+          <t>-7,83; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 6,46</t>
+          <t>-1,22; 6,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,13; -0,49</t>
+          <t>-4,42; -0,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 0,0</t>
+          <t>-7,83; 0,0</t>
         </is>
       </c>
     </row>
